--- a/Data/EC/NIT-9007446060.xlsx
+++ b/Data/EC/NIT-9007446060.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B49AF90-A07D-42A1-8ED6-35B5072C1BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15C3B834-26BE-48FD-AF64-E4FDABC95934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E05A9B8F-BD2B-42C4-8309-4ABFA43E78DF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E9AB3C6D-AE35-4138-8E37-7D59D7D405FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="72">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,184 +71,154 @@
     <t>KEVIN DANIEL JULIO VILLERO</t>
   </si>
   <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
     <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1094247176</t>
-  </si>
-  <si>
-    <t>GABRIELA CESPEDES VERGARA</t>
-  </si>
-  <si>
-    <t>1606</t>
-  </si>
-  <si>
-    <t>1605</t>
-  </si>
-  <si>
-    <t>1604</t>
-  </si>
-  <si>
-    <t>1603</t>
-  </si>
-  <si>
-    <t>1602</t>
-  </si>
-  <si>
-    <t>1601</t>
-  </si>
-  <si>
-    <t>1512</t>
-  </si>
-  <si>
-    <t>1511</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -347,7 +317,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -360,9 +332,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -562,23 +532,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -606,10 +576,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -662,7 +632,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB07D7B4-3E95-3F21-8040-93087D7E3F06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F45C5E9-858F-572F-FBCB-7362CA8FA7A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1013,8 +983,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A815B230-4576-4D89-A26B-E4338FF9A831}">
-  <dimension ref="B2:J79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26FC611-82AE-4499-B019-58994445ADAD}">
+  <dimension ref="B2:J71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1025,7 +995,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1038,7 +1008,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1083,7 +1053,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1115,12 +1085,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1474965</v>
+        <v>1268565</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1131,17 +1101,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F13" s="5">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1168,13 +1138,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1191,10 +1161,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>23958</v>
+        <v>13789</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1214,10 +1184,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>14754</v>
       </c>
       <c r="G17" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1237,10 +1207,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>14754</v>
       </c>
       <c r="G18" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1260,10 +1230,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>14754</v>
       </c>
       <c r="G19" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1283,10 +1253,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>14754</v>
       </c>
       <c r="G20" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1306,10 +1276,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>14754</v>
       </c>
       <c r="G21" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1329,10 +1299,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>14754</v>
       </c>
       <c r="G22" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1352,10 +1322,10 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>14754</v>
       </c>
       <c r="G23" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1375,10 +1345,10 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>14754</v>
       </c>
       <c r="G24" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1398,10 +1368,10 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>14754</v>
       </c>
       <c r="G25" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1421,10 +1391,10 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>14754</v>
       </c>
       <c r="G26" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1444,10 +1414,10 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>22132</v>
       </c>
       <c r="G27" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1467,10 +1437,10 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>22132</v>
       </c>
       <c r="G28" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1490,10 +1460,10 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>22132</v>
       </c>
       <c r="G29" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1513,10 +1483,10 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>22132</v>
       </c>
       <c r="G30" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1536,10 +1506,10 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>22132</v>
       </c>
       <c r="G31" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1559,10 +1529,10 @@
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>22132</v>
       </c>
       <c r="G32" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1582,10 +1552,10 @@
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>22132</v>
       </c>
       <c r="G33" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1605,10 +1575,10 @@
         <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>22132</v>
       </c>
       <c r="G34" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1628,10 +1598,10 @@
         <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>23437</v>
       </c>
       <c r="G35" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1651,10 +1621,10 @@
         <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>23437</v>
       </c>
       <c r="G36" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1674,10 +1644,10 @@
         <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>23437</v>
       </c>
       <c r="G37" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1697,10 +1667,10 @@
         <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>23437</v>
       </c>
       <c r="G38" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1723,7 +1693,7 @@
         <v>31249</v>
       </c>
       <c r="G39" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1746,7 +1716,7 @@
         <v>31249</v>
       </c>
       <c r="G40" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1769,7 +1739,7 @@
         <v>31249</v>
       </c>
       <c r="G41" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1792,7 +1762,7 @@
         <v>31249</v>
       </c>
       <c r="G42" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1812,10 +1782,10 @@
         <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>23437</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1835,10 +1805,10 @@
         <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>23437</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1858,10 +1828,10 @@
         <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>23437</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1881,10 +1851,10 @@
         <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>23437</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1904,10 +1874,10 @@
         <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>22132</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1927,10 +1897,10 @@
         <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>22132</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1950,10 +1920,10 @@
         <v>44</v>
       </c>
       <c r="F49" s="18">
-        <v>22132</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1973,10 +1943,10 @@
         <v>45</v>
       </c>
       <c r="F50" s="18">
-        <v>22132</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1996,10 +1966,10 @@
         <v>46</v>
       </c>
       <c r="F51" s="18">
-        <v>22132</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2019,10 +1989,10 @@
         <v>47</v>
       </c>
       <c r="F52" s="18">
-        <v>22132</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2042,10 +2012,10 @@
         <v>48</v>
       </c>
       <c r="F53" s="18">
-        <v>22132</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2065,10 +2035,10 @@
         <v>49</v>
       </c>
       <c r="F54" s="18">
-        <v>22132</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2088,10 +2058,10 @@
         <v>50</v>
       </c>
       <c r="F55" s="18">
-        <v>14754</v>
+        <v>31249</v>
       </c>
       <c r="G55" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2111,10 +2081,10 @@
         <v>51</v>
       </c>
       <c r="F56" s="18">
-        <v>14754</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2134,10 +2104,10 @@
         <v>52</v>
       </c>
       <c r="F57" s="18">
-        <v>14754</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2157,10 +2127,10 @@
         <v>53</v>
       </c>
       <c r="F58" s="18">
-        <v>14754</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2180,10 +2150,10 @@
         <v>54</v>
       </c>
       <c r="F59" s="18">
-        <v>14754</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2203,10 +2173,10 @@
         <v>55</v>
       </c>
       <c r="F60" s="18">
-        <v>14754</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2226,10 +2196,10 @@
         <v>56</v>
       </c>
       <c r="F61" s="18">
-        <v>14754</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2249,10 +2219,10 @@
         <v>57</v>
       </c>
       <c r="F62" s="18">
-        <v>14754</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2272,10 +2242,10 @@
         <v>58</v>
       </c>
       <c r="F63" s="18">
-        <v>14754</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2295,250 +2265,66 @@
         <v>59</v>
       </c>
       <c r="F64" s="18">
-        <v>14754</v>
+        <v>31249</v>
       </c>
       <c r="G64" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B65" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="16" t="s">
+      <c r="B65" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F65" s="18">
-        <v>13789</v>
-      </c>
-      <c r="G65" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B66" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F66" s="18">
-        <v>25800</v>
-      </c>
-      <c r="G66" s="18">
-        <v>0</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B67" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F67" s="18">
-        <v>25800</v>
-      </c>
-      <c r="G67" s="18">
-        <v>0</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B68" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F68" s="18">
-        <v>25800</v>
-      </c>
-      <c r="G68" s="18">
-        <v>0</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B69" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F69" s="18">
-        <v>25800</v>
-      </c>
-      <c r="G69" s="18">
-        <v>0</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
+      <c r="F65" s="24">
+        <v>23958</v>
+      </c>
+      <c r="G65" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="26"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B70" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F70" s="18">
-        <v>25800</v>
-      </c>
-      <c r="G70" s="18">
-        <v>0</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
+      <c r="B70" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" s="32"/>
+      <c r="H70" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B71" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F71" s="18">
-        <v>25800</v>
-      </c>
-      <c r="G71" s="18">
-        <v>0</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B72" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E72" s="16" t="s">
+      <c r="B71" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="F72" s="18">
-        <v>25800</v>
-      </c>
-      <c r="G72" s="18">
-        <v>0</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B73" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D73" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E73" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F73" s="24">
-        <v>25800</v>
-      </c>
-      <c r="G73" s="24">
-        <v>0</v>
-      </c>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="26"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C78" s="32"/>
-      <c r="H78" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B79" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C79" s="32"/>
-      <c r="H79" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
+      <c r="C71" s="32"/>
+      <c r="H71" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="H70:J70"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
